--- a/data_ts.xlsx
+++ b/data_ts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESIS\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESIS\git\backup_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4466B76-4BE5-4E6D-AA4E-C2A7329EDCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58580C29-8029-442A-A2AE-E52D8E0F2F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AE8F5074-B15E-AF42-8D90-B296523B5ABC}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>anio</t>
-  </si>
-  <si>
     <t>produccion</t>
   </si>
   <si>
@@ -45,15 +42,23 @@
     <t>pastizales</t>
   </si>
   <si>
-    <t>poblacion</t>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>alpacas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="########0.0"/>
+  <numFmts count="6">
+    <numFmt numFmtId="169" formatCode="########0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
+    <numFmt numFmtId="175" formatCode="########0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -89,13 +94,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,54 +425,57 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1992</v>
       </c>
-      <c r="B2" s="1">
-        <v>3.448</v>
-      </c>
-      <c r="C2" s="2">
-        <v>17610</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2697</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3274.33</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="2">
+        <v>3448</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17.61</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.27433</v>
+      </c>
+      <c r="F2" s="6">
         <v>1399.87</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>19.86</v>
       </c>
     </row>
@@ -468,22 +483,22 @@
       <c r="A3">
         <v>1993</v>
       </c>
-      <c r="B3" s="1">
-        <v>3.3050000000000002</v>
-      </c>
-      <c r="C3" s="2">
-        <v>17457</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2685</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3393.39</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="2">
+        <v>3305</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17.457000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.3933900000000001</v>
+      </c>
+      <c r="F3" s="6">
         <v>1670.28</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>19.66</v>
       </c>
     </row>
@@ -491,22 +506,22 @@
       <c r="A4">
         <v>1994</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.7280000000000002</v>
-      </c>
-      <c r="C4" s="2">
-        <v>17304</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2721</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3444.12</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="2">
+        <v>3728</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17.303999999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.4441199999999998</v>
+      </c>
+      <c r="F4" s="6">
         <v>1649.18</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>19.66</v>
       </c>
     </row>
@@ -514,22 +529,22 @@
       <c r="A5">
         <v>1995</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>17386.95</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2755</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3583.47</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="2">
+        <v>2775</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17.386949999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.5834700000000002</v>
+      </c>
+      <c r="F5" s="6">
         <v>1421.02</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -537,22 +552,22 @@
       <c r="A6">
         <v>1996</v>
       </c>
-      <c r="B6" s="1">
-        <v>3.3645</v>
-      </c>
-      <c r="C6" s="2">
-        <v>17469.900000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2663</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3732.91</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="2">
+        <v>3364.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17.469899999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.73291</v>
+      </c>
+      <c r="F6" s="6">
         <v>1546.52</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>19.079999999999998</v>
       </c>
     </row>
@@ -560,22 +575,22 @@
       <c r="A7">
         <v>1997</v>
       </c>
-      <c r="B7" s="1">
-        <v>3.3370000000000002</v>
-      </c>
-      <c r="C7" s="2">
-        <v>17552.849999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2676</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3850.57</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="2">
+        <v>3337</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17.552849999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.8505699999999998</v>
+      </c>
+      <c r="F7" s="6">
         <v>1588.42</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>20.13</v>
       </c>
     </row>
@@ -583,22 +598,22 @@
       <c r="A8">
         <v>1998</v>
       </c>
-      <c r="B8" s="1">
-        <v>3.0470000000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>17635.8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2843.34</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4036.89</v>
-      </c>
-      <c r="F8">
+      <c r="B8" s="2">
+        <v>3047</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17.6358</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.84334</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.0368899999999996</v>
+      </c>
+      <c r="F8" s="6">
         <v>1531.52</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>20.36</v>
       </c>
     </row>
@@ -606,22 +621,22 @@
       <c r="A9">
         <v>1999</v>
       </c>
-      <c r="B9" s="1">
-        <v>3.2721300000000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>17718.75</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3040.0889999999999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4222.74</v>
-      </c>
-      <c r="F9">
+      <c r="B9" s="2">
+        <v>3272.13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17.71875</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.040089</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.2227399999999999</v>
+      </c>
+      <c r="F9" s="6">
         <v>1767</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>19.239999999999998</v>
       </c>
     </row>
@@ -629,22 +644,22 @@
       <c r="A10">
         <v>2000</v>
       </c>
-      <c r="B10" s="1">
-        <v>3.11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>17801.7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3068.2089999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4150.53</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="2">
+        <v>3110</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17.8017</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.068209</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.1505299999999998</v>
+      </c>
+      <c r="F10" s="6">
         <v>1684.58</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>19.39</v>
       </c>
     </row>
@@ -652,22 +667,22 @@
       <c r="A11">
         <v>2001</v>
       </c>
-      <c r="B11" s="1">
-        <v>3.39866</v>
-      </c>
-      <c r="C11" s="2">
-        <v>17884.650000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3182.373</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4449.08</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="2">
+        <v>3398.66</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17.884650000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.1823730000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.4490800000000004</v>
+      </c>
+      <c r="F11" s="6">
         <v>1749.32</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>19.32</v>
       </c>
     </row>
@@ -675,22 +690,22 @@
       <c r="A12">
         <v>2002</v>
       </c>
-      <c r="B12" s="1">
-        <v>3.1654137610299999</v>
-      </c>
-      <c r="C12" s="2">
-        <v>17967.599999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3335.835</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4516.68</v>
-      </c>
-      <c r="F12">
+      <c r="B12" s="2">
+        <v>3165.4137610299999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17.967600000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.3358349999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.51668</v>
+      </c>
+      <c r="F12" s="6">
         <v>1695.84</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>19.66</v>
       </c>
     </row>
@@ -698,22 +713,22 @@
       <c r="A13">
         <v>2003</v>
       </c>
-      <c r="B13" s="1">
-        <v>3.1027619710600001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18050.55</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3422.5569999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4609.91</v>
-      </c>
-      <c r="F13">
+      <c r="B13" s="2">
+        <v>3102.7619710600002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18.050550000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.4225569999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.6099100000000002</v>
+      </c>
+      <c r="F13" s="6">
         <v>1764.28</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>19.63</v>
       </c>
     </row>
@@ -721,22 +736,22 @@
       <c r="A14">
         <v>2004</v>
       </c>
-      <c r="B14" s="1">
-        <v>3.2484790284999998</v>
-      </c>
-      <c r="C14" s="2">
-        <v>18133.5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3429.0189999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4620.6899999999996</v>
-      </c>
-      <c r="F14">
+      <c r="B14" s="2">
+        <v>3248.4790284999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>18.133500000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3.4290189999999998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.6206899999999997</v>
+      </c>
+      <c r="F14" s="6">
         <v>1752.64</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>19.72</v>
       </c>
     </row>
@@ -744,22 +759,22 @@
       <c r="A15">
         <v>2005</v>
       </c>
-      <c r="B15" s="1">
-        <v>3.5972864276299998</v>
-      </c>
-      <c r="C15" s="2">
-        <v>18216.45</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3597.5548205</v>
-      </c>
-      <c r="E15" s="2">
-        <v>4588.41</v>
-      </c>
-      <c r="F15">
+      <c r="B15" s="2">
+        <v>3597.2864276300002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>18.216449999999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.5975548205000001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.5884099999999997</v>
+      </c>
+      <c r="F15" s="6">
         <v>1536.04</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>19.59</v>
       </c>
     </row>
@@ -767,22 +782,22 @@
       <c r="A16">
         <v>2006</v>
       </c>
-      <c r="B16" s="1">
-        <v>3.51</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18299.400000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3625.627</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4687.93</v>
-      </c>
-      <c r="F16">
+      <c r="B16" s="2">
+        <v>3510</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18.299399999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.6256270000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.6879299999999997</v>
+      </c>
+      <c r="F16" s="6">
         <v>1809.69</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>19.72</v>
       </c>
     </row>
@@ -790,22 +805,22 @@
       <c r="A17">
         <v>2007</v>
       </c>
-      <c r="B17" s="1">
-        <v>3.895</v>
-      </c>
-      <c r="C17" s="2">
-        <v>18382.349999999999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3687.34</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4650.68</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="2">
+        <v>3895</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18.382349999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.6873399999999998</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.6506800000000004</v>
+      </c>
+      <c r="F17" s="6">
         <v>1697.16</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>19.190000000000001</v>
       </c>
     </row>
@@ -813,22 +828,22 @@
       <c r="A18">
         <v>2008</v>
       </c>
-      <c r="B18" s="1">
-        <v>4.0190000000000001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>18465.3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3780.806</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4450.12</v>
-      </c>
-      <c r="F18">
+      <c r="B18" s="2">
+        <v>4019</v>
+      </c>
+      <c r="C18" s="1">
+        <v>18.465299999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.7808060000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.4501200000000001</v>
+      </c>
+      <c r="F18" s="6">
         <v>1685.59</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>19.36</v>
       </c>
     </row>
@@ -836,22 +851,22 @@
       <c r="A19">
         <v>2009</v>
       </c>
-      <c r="B19" s="1">
-        <v>4.3865017065699998</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18548.25</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4105.5818204999996</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4494.49</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="2">
+        <v>4386.5017065700004</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18.548249999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.1055818205000003</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.4944899999999999</v>
+      </c>
+      <c r="F19" s="6">
         <v>1711.83</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>19.73</v>
       </c>
     </row>
@@ -859,22 +874,22 @@
       <c r="A20">
         <v>2010</v>
       </c>
-      <c r="B20" s="1">
-        <v>4.35178262252</v>
-      </c>
-      <c r="C20" s="2">
-        <v>18631.2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4177.49864907143</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4407.6499999999996</v>
-      </c>
-      <c r="F20">
+      <c r="B20" s="2">
+        <v>4351.7826225199997</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18.6312</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4.1774986490714303</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.4076500000000003</v>
+      </c>
+      <c r="F20" s="6">
         <v>1407.81</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>19.66</v>
       </c>
     </row>
@@ -882,22 +897,22 @@
       <c r="A21">
         <v>2011</v>
       </c>
-      <c r="B21" s="1">
-        <v>4.6614143952799996</v>
-      </c>
-      <c r="C21" s="2">
-        <v>18714.150000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4322.2584360000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4280.6899999999996</v>
-      </c>
-      <c r="F21">
+      <c r="B21" s="2">
+        <v>4661.4143952799996</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18.71415</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.3222584360000003</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.2806899999999999</v>
+      </c>
+      <c r="F21" s="6">
         <v>1633.49</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>19.45</v>
       </c>
     </row>
@@ -905,22 +920,22 @@
       <c r="A22">
         <v>2012</v>
       </c>
-      <c r="B22" s="1">
-        <v>4.7973932921199998</v>
-      </c>
-      <c r="C22" s="2">
-        <v>18797.099999999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3924.23</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4192.08</v>
-      </c>
-      <c r="F22">
+      <c r="B22" s="2">
+        <v>4797.3932921200003</v>
+      </c>
+      <c r="C22" s="1">
+        <v>18.7971</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3.9242300000000001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.1920799999999998</v>
+      </c>
+      <c r="F22" s="6">
         <v>1503.31</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>19.63</v>
       </c>
     </row>
@@ -928,22 +943,22 @@
       <c r="A23">
         <v>2013</v>
       </c>
-      <c r="B23" s="1">
-        <v>4.4202621337399997</v>
-      </c>
-      <c r="C23" s="2">
-        <v>18671</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3978.29</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4183.03</v>
-      </c>
-      <c r="F23">
+      <c r="B23" s="2">
+        <v>4420.2621337399996</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18.670999999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3.9782899999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.1830299999999996</v>
+      </c>
+      <c r="F23" s="6">
         <v>1605.18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>19.28</v>
       </c>
     </row>
@@ -951,22 +966,22 @@
       <c r="A24">
         <v>2014</v>
       </c>
-      <c r="B24" s="1">
-        <v>4.4850000000000003</v>
-      </c>
-      <c r="C24" s="2">
-        <v>18566</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4095.5548749999998</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4273.99</v>
-      </c>
-      <c r="F24">
+      <c r="B24" s="2">
+        <v>4485</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18.565999999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4.0955548750000004</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.2739900000000004</v>
+      </c>
+      <c r="F24" s="6">
         <v>1573.1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>19.670000000000002</v>
       </c>
     </row>
@@ -974,22 +989,22 @@
       <c r="A25">
         <v>2015</v>
       </c>
-      <c r="B25" s="1">
-        <v>4.43800083034</v>
-      </c>
-      <c r="C25" s="2">
-        <v>18418</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4318.4571093643299</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4373.43</v>
-      </c>
-      <c r="F25">
+      <c r="B25" s="2">
+        <v>4438.00083034</v>
+      </c>
+      <c r="C25" s="1">
+        <v>18.417999999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4.3184571093643296</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4.3734299999999999</v>
+      </c>
+      <c r="F25" s="6">
         <v>1575.91</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>20.2</v>
       </c>
     </row>
@@ -997,22 +1012,22 @@
       <c r="A26">
         <v>2016</v>
       </c>
-      <c r="B26" s="1">
-        <v>4.5084825524800003</v>
-      </c>
-      <c r="C26" s="2">
-        <v>18357</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4319.22775</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4407.38</v>
-      </c>
-      <c r="F26">
+      <c r="B26" s="2">
+        <v>4508.4825524799999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18.356999999999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4.3192277499999996</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4.4073799999999999</v>
+      </c>
+      <c r="F26" s="6">
         <v>1510.55</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>20.11</v>
       </c>
     </row>
@@ -1020,22 +1035,22 @@
       <c r="A27">
         <v>2017</v>
       </c>
-      <c r="B27" s="1">
-        <v>4.3142295300000004</v>
-      </c>
-      <c r="C27" s="2">
-        <v>18532</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4330.71</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4451.4799999999996</v>
-      </c>
-      <c r="F27">
+      <c r="B27" s="2">
+        <v>4314.2295299999996</v>
+      </c>
+      <c r="C27" s="1">
+        <v>18.532</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.3307099999999998</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.4514800000000001</v>
+      </c>
+      <c r="F27" s="6">
         <v>1725.86</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="5">
         <v>19.88</v>
       </c>
     </row>
@@ -1043,22 +1058,22 @@
       <c r="A28">
         <v>2018</v>
       </c>
-      <c r="B28" s="1">
-        <v>4.5750000000000002</v>
-      </c>
-      <c r="C28" s="2">
-        <v>18196</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4384.8459999999995</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4569.8999999999996</v>
-      </c>
-      <c r="F28">
+      <c r="B28" s="2">
+        <v>4575</v>
+      </c>
+      <c r="C28" s="1">
+        <v>18.196000000000002</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4.3848459999999996</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4.5698999999999996</v>
+      </c>
+      <c r="F28" s="6">
         <v>1597.47</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="5">
         <v>19.57</v>
       </c>
     </row>
@@ -1066,22 +1081,22 @@
       <c r="A29">
         <v>2019</v>
       </c>
-      <c r="B29" s="1">
-        <v>4.4527970637700003</v>
-      </c>
-      <c r="C29" s="2">
-        <v>18185</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4456.049</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4594.97</v>
-      </c>
-      <c r="F29">
+      <c r="B29" s="2">
+        <v>4452.79706377</v>
+      </c>
+      <c r="C29" s="1">
+        <v>18.184999999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4.4560490000000001</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.59497</v>
+      </c>
+      <c r="F29" s="6">
         <v>1745.83</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="5">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -1089,22 +1104,22 @@
       <c r="A30">
         <v>2020</v>
       </c>
-      <c r="B30" s="1">
-        <v>4.3516747393399999</v>
-      </c>
-      <c r="C30" s="2">
-        <v>18284</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4450.4219999999996</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5267.38</v>
-      </c>
-      <c r="F30">
+      <c r="B30" s="2">
+        <v>4351.6747393400001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>18.283999999999999</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4.4504219999999997</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5.2673800000000002</v>
+      </c>
+      <c r="F30" s="6">
         <v>1302.93</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>19.809999999999999</v>
       </c>
     </row>
@@ -1112,22 +1127,22 @@
       <c r="A31">
         <v>2021</v>
       </c>
-      <c r="B31" s="1">
-        <v>4.4033227581299998</v>
-      </c>
-      <c r="C31" s="2">
-        <v>18383</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4485.4970000000003</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4720.1099999999997</v>
-      </c>
-      <c r="F31">
+      <c r="B31" s="2">
+        <v>4403.3227581299998</v>
+      </c>
+      <c r="C31" s="1">
+        <v>18.382999999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4.4854969999999996</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4.72011</v>
+      </c>
+      <c r="F31" s="6">
         <v>1516.64</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <v>19.649999999999999</v>
       </c>
     </row>
@@ -1135,22 +1150,22 @@
       <c r="A32">
         <v>2022</v>
       </c>
-      <c r="B32" s="1">
-        <v>4.4219439097700004</v>
-      </c>
-      <c r="C32" s="2">
-        <v>18186.921999999999</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4533.924</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4629.13</v>
-      </c>
-      <c r="F32">
+      <c r="B32" s="2">
+        <v>4421.9439097699997</v>
+      </c>
+      <c r="C32" s="1">
+        <v>18.186921999999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4.5339239999999998</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4.62913</v>
+      </c>
+      <c r="F32" s="6">
         <v>1234.4100000000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="5">
         <v>19.53</v>
       </c>
     </row>
